--- a/SO SACH/0310686815/2011/BANGKE - 11.xlsx
+++ b/SO SACH/0310686815/2011/BANGKE - 11.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\KT-KD-KN\SO SACH\0310686815\2011\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -34,7 +29,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'TH - BR'!$12:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TH-MV'!$12:$15</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -44,7 +39,7 @@
     <author>FIS-CMCSOFT</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0">
+    <comment ref="K12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +140,7 @@
     <author>FIS-CMCSOFT</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1434,13 +1429,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2136,6 +2131,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2157,17 +2164,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2181,23 +2185,29 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2217,20 +2227,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2243,36 +2268,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2315,7 +2310,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2515,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2728,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2766,26 +2761,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2818,23 +2796,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3016,13 +2977,13 @@
   </sheetPr>
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
@@ -3042,7 +3003,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="37" customFormat="1">
+    <row r="1" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="38"/>
       <c r="E1" s="39"/>
       <c r="F1" s="38"/>
@@ -3052,7 +3013,7 @@
       <c r="K1" s="40"/>
       <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:15" s="37" customFormat="1">
+    <row r="2" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D2" s="38"/>
       <c r="E2" s="39"/>
       <c r="F2" s="38"/>
@@ -3062,7 +3023,7 @@
       <c r="K2" s="40"/>
       <c r="M2" s="38"/>
     </row>
-    <row r="3" spans="1:15" s="37" customFormat="1">
+    <row r="3" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="38"/>
@@ -3074,73 +3035,73 @@
       <c r="K3" s="40"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:15" s="37" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="127" t="s">
+    <row r="4" spans="1:15" s="37" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-    </row>
-    <row r="5" spans="1:15" s="37" customFormat="1" hidden="1">
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+    </row>
+    <row r="5" spans="1:15" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-    </row>
-    <row r="6" spans="1:15" s="37" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B6" s="129" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+    </row>
+    <row r="6" spans="1:15" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-    </row>
-    <row r="7" spans="1:15" s="37" customFormat="1">
-      <c r="B7" s="129" t="str">
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+    </row>
+    <row r="7" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="122" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F28)</f>
         <v>Kỳ tính thuế: Tháng 4 Năm 2011</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-    </row>
-    <row r="8" spans="1:15" s="37" customFormat="1">
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+    </row>
+    <row r="8" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="38"/>
@@ -3152,78 +3113,78 @@
       <c r="K8" s="40"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:15" s="37" customFormat="1">
+    <row r="9" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="37" customFormat="1">
+    <row r="10" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="37" customFormat="1">
-      <c r="B11" s="130" t="s">
+    <row r="11" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-    </row>
-    <row r="12" spans="1:15" s="37" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B12" s="122" t="s">
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+    </row>
+    <row r="12" spans="1:15" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="120" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="120" t="s">
+      <c r="H12" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="120" t="s">
+      <c r="I12" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="120" t="s">
+      <c r="J12" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="121" t="s">
+      <c r="K12" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="120" t="s">
+      <c r="L12" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="124" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="37" customFormat="1" ht="4.5" customHeight="1">
-      <c r="B13" s="122"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-    </row>
-    <row r="14" spans="1:15" s="37" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B14" s="122"/>
+    <row r="13" spans="1:15" s="37" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="126"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+    </row>
+    <row r="14" spans="1:15" s="37" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="126"/>
       <c r="C14" s="42" t="s">
         <v>43</v>
       </c>
@@ -3236,13 +3197,13 @@
       <c r="F14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
       <c r="N14" s="119" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
         <v>30</v>
@@ -3251,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="37" customFormat="1">
+    <row r="15" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="43" t="s">
         <v>19</v>
       </c>
@@ -3289,7 +3250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="16" spans="1:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47" t="s">
         <v>69</v>
       </c>
@@ -3305,7 +3266,7 @@
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
     </row>
-    <row r="17" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="17" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="48">
         <f>IF(G17&lt;&gt;"",ROW()-16,"")</f>
         <v>1</v>
@@ -3348,7 +3309,7 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="18" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
         <f t="shared" ref="B18:B81" si="2">IF(G18&lt;&gt;"",ROW()-16,"")</f>
         <v>2</v>
@@ -3391,7 +3352,7 @@
       <c r="P18" s="56"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="19" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="48">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -3433,7 +3394,7 @@
       <c r="O19" s="57"/>
       <c r="P19" s="56"/>
     </row>
-    <row r="20" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="20" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="48">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3475,7 +3436,7 @@
       <c r="O20" s="57"/>
       <c r="P20" s="56"/>
     </row>
-    <row r="21" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="21" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="48">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3517,7 +3478,7 @@
       <c r="O21" s="57"/>
       <c r="P21" s="56"/>
     </row>
-    <row r="22" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="22" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="48">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3559,7 +3520,7 @@
       <c r="O22" s="57"/>
       <c r="P22" s="56"/>
     </row>
-    <row r="23" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="23" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3601,7 +3562,7 @@
       <c r="O23" s="57"/>
       <c r="P23" s="56"/>
     </row>
-    <row r="24" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="24" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="48">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3642,7 +3603,7 @@
       <c r="N24" s="56"/>
       <c r="O24" s="57"/>
     </row>
-    <row r="25" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="25" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="48">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3683,7 +3644,7 @@
       <c r="N25" s="56"/>
       <c r="O25" s="57"/>
     </row>
-    <row r="26" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="26" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="48">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3724,7 +3685,7 @@
       <c r="N26" s="56"/>
       <c r="O26" s="57"/>
     </row>
-    <row r="27" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="27" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="48">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3765,7 +3726,7 @@
       <c r="N27" s="56"/>
       <c r="O27" s="57"/>
     </row>
-    <row r="28" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="28" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="48">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3806,7 +3767,7 @@
       <c r="N28" s="56"/>
       <c r="O28" s="57"/>
     </row>
-    <row r="29" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="29" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="48">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3847,7 +3808,7 @@
       <c r="N29" s="56"/>
       <c r="O29" s="57"/>
     </row>
-    <row r="30" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="30" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="48">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3888,7 +3849,7 @@
       <c r="N30" s="56"/>
       <c r="O30" s="57"/>
     </row>
-    <row r="31" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="31" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="48">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -3929,7 +3890,7 @@
       <c r="N31" s="56"/>
       <c r="O31" s="57"/>
     </row>
-    <row r="32" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="32" spans="2:17" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -3970,7 +3931,7 @@
       <c r="N32" s="56"/>
       <c r="O32" s="57"/>
     </row>
-    <row r="33" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="33" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4011,7 +3972,7 @@
       <c r="N33" s="56"/>
       <c r="O33" s="57"/>
     </row>
-    <row r="34" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="34" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4052,7 +4013,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="57"/>
     </row>
-    <row r="35" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="35" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="48">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4093,7 +4054,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="57"/>
     </row>
-    <row r="36" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="36" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4134,7 +4095,7 @@
       <c r="N36" s="56"/>
       <c r="O36" s="57"/>
     </row>
-    <row r="37" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="37" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="48">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -4175,7 +4136,7 @@
       <c r="N37" s="56"/>
       <c r="O37" s="57"/>
     </row>
-    <row r="38" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="38" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="48">
         <f>IF(G38&lt;&gt;"",ROW()-16,"")</f>
         <v>22</v>
@@ -4216,7 +4177,7 @@
       <c r="N38" s="56"/>
       <c r="O38" s="57"/>
     </row>
-    <row r="39" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="39" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="48">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -4257,7 +4218,7 @@
       <c r="N39" s="56"/>
       <c r="O39" s="57"/>
     </row>
-    <row r="40" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="40" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="48">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -4298,7 +4259,7 @@
       <c r="N40" s="56"/>
       <c r="O40" s="57"/>
     </row>
-    <row r="41" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="41" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="48">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4339,7 +4300,7 @@
       <c r="N41" s="56"/>
       <c r="O41" s="57"/>
     </row>
-    <row r="42" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="42" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="48">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4380,7 +4341,7 @@
       <c r="N42" s="56"/>
       <c r="O42" s="57"/>
     </row>
-    <row r="43" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="43" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="48">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4421,7 +4382,7 @@
       <c r="N43" s="56"/>
       <c r="O43" s="57"/>
     </row>
-    <row r="44" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="44" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="48">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -4462,7 +4423,7 @@
       <c r="N44" s="56"/>
       <c r="O44" s="57"/>
     </row>
-    <row r="45" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="45" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="48">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -4503,7 +4464,7 @@
       <c r="N45" s="56"/>
       <c r="O45" s="57"/>
     </row>
-    <row r="46" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="46" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="48">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -4544,7 +4505,7 @@
       <c r="N46" s="56"/>
       <c r="O46" s="57"/>
     </row>
-    <row r="47" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="47" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="48">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -4585,7 +4546,7 @@
       <c r="N47" s="56"/>
       <c r="O47" s="57"/>
     </row>
-    <row r="48" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="48" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="48">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -4626,7 +4587,7 @@
       <c r="N48" s="56"/>
       <c r="O48" s="57"/>
     </row>
-    <row r="49" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="49" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="48">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -4667,7 +4628,7 @@
       <c r="N49" s="56"/>
       <c r="O49" s="57"/>
     </row>
-    <row r="50" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="50" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="48">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -4708,7 +4669,7 @@
       <c r="N50" s="56"/>
       <c r="O50" s="57"/>
     </row>
-    <row r="51" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="51" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="48">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -4749,7 +4710,7 @@
       <c r="N51" s="56"/>
       <c r="O51" s="57"/>
     </row>
-    <row r="52" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="52" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="48">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -4790,7 +4751,7 @@
       <c r="N52" s="56"/>
       <c r="O52" s="57"/>
     </row>
-    <row r="53" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="53" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="48">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -4831,7 +4792,7 @@
       <c r="N53" s="56"/>
       <c r="O53" s="57"/>
     </row>
-    <row r="54" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="54" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="48">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -4872,7 +4833,7 @@
       <c r="N54" s="56"/>
       <c r="O54" s="57"/>
     </row>
-    <row r="55" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="55" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="48">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -4913,7 +4874,7 @@
       <c r="N55" s="56"/>
       <c r="O55" s="57"/>
     </row>
-    <row r="56" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="56" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="48">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -4954,7 +4915,7 @@
       <c r="N56" s="56"/>
       <c r="O56" s="57"/>
     </row>
-    <row r="57" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="57" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="48">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -4995,7 +4956,7 @@
       <c r="N57" s="56"/>
       <c r="O57" s="57"/>
     </row>
-    <row r="58" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="58" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="48">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -5036,7 +4997,7 @@
       <c r="N58" s="56"/>
       <c r="O58" s="57"/>
     </row>
-    <row r="59" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="59" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="48">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -5077,7 +5038,7 @@
       <c r="N59" s="56"/>
       <c r="O59" s="57"/>
     </row>
-    <row r="60" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="60" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="48">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -5118,7 +5079,7 @@
       <c r="N60" s="56"/>
       <c r="O60" s="57"/>
     </row>
-    <row r="61" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="61" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="48">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5159,7 +5120,7 @@
       <c r="N61" s="56"/>
       <c r="O61" s="57"/>
     </row>
-    <row r="62" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="62" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="48">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -5200,7 +5161,7 @@
       <c r="N62" s="56"/>
       <c r="O62" s="57"/>
     </row>
-    <row r="63" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="63" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="48">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5241,7 +5202,7 @@
       <c r="N63" s="56"/>
       <c r="O63" s="57"/>
     </row>
-    <row r="64" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="64" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="48">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -5282,7 +5243,7 @@
       <c r="N64" s="56"/>
       <c r="O64" s="57"/>
     </row>
-    <row r="65" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="65" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="48">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5323,7 +5284,7 @@
       <c r="N65" s="56"/>
       <c r="O65" s="57"/>
     </row>
-    <row r="66" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="66" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="48">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -5364,7 +5325,7 @@
       <c r="N66" s="56"/>
       <c r="O66" s="57"/>
     </row>
-    <row r="67" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="67" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="48">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5405,7 +5366,7 @@
       <c r="N67" s="56"/>
       <c r="O67" s="57"/>
     </row>
-    <row r="68" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="68" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="48">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -5446,7 +5407,7 @@
       <c r="N68" s="56"/>
       <c r="O68" s="57"/>
     </row>
-    <row r="69" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="69" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="48">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -5487,7 +5448,7 @@
       <c r="N69" s="56"/>
       <c r="O69" s="57"/>
     </row>
-    <row r="70" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="70" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="48">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -5528,7 +5489,7 @@
       <c r="N70" s="56"/>
       <c r="O70" s="57"/>
     </row>
-    <row r="71" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="71" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="48">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -5569,7 +5530,7 @@
       <c r="N71" s="56"/>
       <c r="O71" s="57"/>
     </row>
-    <row r="72" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="72" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="48">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -5610,7 +5571,7 @@
       <c r="N72" s="56"/>
       <c r="O72" s="57"/>
     </row>
-    <row r="73" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="73" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="48">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -5651,7 +5612,7 @@
       <c r="N73" s="56"/>
       <c r="O73" s="57"/>
     </row>
-    <row r="74" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="74" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="48">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -5692,7 +5653,7 @@
       <c r="N74" s="56"/>
       <c r="O74" s="57"/>
     </row>
-    <row r="75" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="75" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="48">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -5733,7 +5694,7 @@
       <c r="N75" s="56"/>
       <c r="O75" s="57"/>
     </row>
-    <row r="76" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="76" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="48">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -5774,7 +5735,7 @@
       <c r="N76" s="56"/>
       <c r="O76" s="57"/>
     </row>
-    <row r="77" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="77" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="48">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -5815,7 +5776,7 @@
       <c r="N77" s="56"/>
       <c r="O77" s="57"/>
     </row>
-    <row r="78" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="78" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="48">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -5856,7 +5817,7 @@
       <c r="N78" s="56"/>
       <c r="O78" s="57"/>
     </row>
-    <row r="79" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="79" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="48">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -5897,7 +5858,7 @@
       <c r="N79" s="56"/>
       <c r="O79" s="57"/>
     </row>
-    <row r="80" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="80" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="48">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -5938,7 +5899,7 @@
       <c r="N80" s="56"/>
       <c r="O80" s="57"/>
     </row>
-    <row r="81" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="81" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="48">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -5979,7 +5940,7 @@
       <c r="N81" s="56"/>
       <c r="O81" s="57"/>
     </row>
-    <row r="82" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="82" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="48">
         <f t="shared" ref="B82:B122" si="5">IF(G82&lt;&gt;"",ROW()-16,"")</f>
         <v>66</v>
@@ -6020,7 +5981,7 @@
       <c r="N82" s="56"/>
       <c r="O82" s="57"/>
     </row>
-    <row r="83" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="83" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="48">
         <f t="shared" ref="B83:B94" si="6">IF(G83&lt;&gt;"",ROW()-16,"")</f>
         <v>67</v>
@@ -6061,7 +6022,7 @@
       <c r="N83" s="56"/>
       <c r="O83" s="57"/>
     </row>
-    <row r="84" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="84" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="48">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -6102,7 +6063,7 @@
       <c r="N84" s="56"/>
       <c r="O84" s="57"/>
     </row>
-    <row r="85" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="85" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="48">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -6143,7 +6104,7 @@
       <c r="N85" s="56"/>
       <c r="O85" s="57"/>
     </row>
-    <row r="86" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="86" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="48">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -6184,7 +6145,7 @@
       <c r="N86" s="56"/>
       <c r="O86" s="57"/>
     </row>
-    <row r="87" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="87" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="48">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -6225,7 +6186,7 @@
       <c r="N87" s="56"/>
       <c r="O87" s="57"/>
     </row>
-    <row r="88" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="88" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="48">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -6266,7 +6227,7 @@
       <c r="N88" s="56"/>
       <c r="O88" s="57"/>
     </row>
-    <row r="89" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="89" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="48">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -6307,7 +6268,7 @@
       <c r="N89" s="56"/>
       <c r="O89" s="57"/>
     </row>
-    <row r="90" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="90" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="48">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -6348,7 +6309,7 @@
       <c r="N90" s="56"/>
       <c r="O90" s="57"/>
     </row>
-    <row r="91" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="91" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="48">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -6389,7 +6350,7 @@
       <c r="N91" s="56"/>
       <c r="O91" s="57"/>
     </row>
-    <row r="92" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="92" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="48">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -6430,7 +6391,7 @@
       <c r="N92" s="56"/>
       <c r="O92" s="57"/>
     </row>
-    <row r="93" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="93" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="48">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -6471,7 +6432,7 @@
       <c r="N93" s="56"/>
       <c r="O93" s="57"/>
     </row>
-    <row r="94" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="94" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="48">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -6512,7 +6473,7 @@
       <c r="N94" s="56"/>
       <c r="O94" s="57"/>
     </row>
-    <row r="95" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="95" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="48">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -6553,7 +6514,7 @@
       <c r="N95" s="56"/>
       <c r="O95" s="57"/>
     </row>
-    <row r="96" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="96" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="48">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -6594,7 +6555,7 @@
       <c r="N96" s="56"/>
       <c r="O96" s="57"/>
     </row>
-    <row r="97" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="97" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="48">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -6635,7 +6596,7 @@
       <c r="N97" s="56"/>
       <c r="O97" s="57"/>
     </row>
-    <row r="98" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="98" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="48">
         <f t="shared" si="5"/>
         <v>82</v>
@@ -6676,7 +6637,7 @@
       <c r="N98" s="56"/>
       <c r="O98" s="57"/>
     </row>
-    <row r="99" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="99" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="48">
         <f t="shared" si="5"/>
         <v>83</v>
@@ -6717,7 +6678,7 @@
       <c r="N99" s="56"/>
       <c r="O99" s="57"/>
     </row>
-    <row r="100" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="100" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="48">
         <f t="shared" si="5"/>
         <v>84</v>
@@ -6758,7 +6719,7 @@
       <c r="N100" s="56"/>
       <c r="O100" s="57"/>
     </row>
-    <row r="101" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="101" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="48">
         <f t="shared" si="5"/>
         <v>85</v>
@@ -6799,7 +6760,7 @@
       <c r="N101" s="56"/>
       <c r="O101" s="57"/>
     </row>
-    <row r="102" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="102" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="48">
         <f t="shared" si="5"/>
         <v>86</v>
@@ -6840,7 +6801,7 @@
       <c r="N102" s="56"/>
       <c r="O102" s="57"/>
     </row>
-    <row r="103" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="103" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="48">
         <f t="shared" si="5"/>
         <v>87</v>
@@ -6881,7 +6842,7 @@
       <c r="N103" s="56"/>
       <c r="O103" s="57"/>
     </row>
-    <row r="104" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="104" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="48">
         <f t="shared" si="5"/>
         <v>88</v>
@@ -6922,7 +6883,7 @@
       <c r="N104" s="56"/>
       <c r="O104" s="57"/>
     </row>
-    <row r="105" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="105" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="48">
         <f t="shared" si="5"/>
         <v>89</v>
@@ -6963,7 +6924,7 @@
       <c r="N105" s="56"/>
       <c r="O105" s="57"/>
     </row>
-    <row r="106" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="106" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="48">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -7004,7 +6965,7 @@
       <c r="N106" s="56"/>
       <c r="O106" s="57"/>
     </row>
-    <row r="107" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="107" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="48">
         <f t="shared" si="5"/>
         <v>91</v>
@@ -7045,7 +7006,7 @@
       <c r="N107" s="56"/>
       <c r="O107" s="57"/>
     </row>
-    <row r="108" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="108" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="48">
         <f t="shared" si="5"/>
         <v>92</v>
@@ -7086,7 +7047,7 @@
       <c r="N108" s="56"/>
       <c r="O108" s="57"/>
     </row>
-    <row r="109" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="109" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="48">
         <f t="shared" si="5"/>
         <v>93</v>
@@ -7127,7 +7088,7 @@
       <c r="N109" s="56"/>
       <c r="O109" s="57"/>
     </row>
-    <row r="110" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="110" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="48">
         <f t="shared" si="5"/>
         <v>94</v>
@@ -7168,7 +7129,7 @@
       <c r="N110" s="56"/>
       <c r="O110" s="57"/>
     </row>
-    <row r="111" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="111" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="48">
         <f t="shared" si="5"/>
         <v>95</v>
@@ -7209,7 +7170,7 @@
       <c r="N111" s="56"/>
       <c r="O111" s="57"/>
     </row>
-    <row r="112" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="112" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="48">
         <f t="shared" si="5"/>
         <v>96</v>
@@ -7250,7 +7211,7 @@
       <c r="N112" s="56"/>
       <c r="O112" s="57"/>
     </row>
-    <row r="113" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="113" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="48">
         <f t="shared" si="5"/>
         <v>97</v>
@@ -7291,7 +7252,7 @@
       <c r="N113" s="56"/>
       <c r="O113" s="57"/>
     </row>
-    <row r="114" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="114" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="48">
         <f t="shared" si="5"/>
         <v>98</v>
@@ -7332,7 +7293,7 @@
       <c r="N114" s="56"/>
       <c r="O114" s="57"/>
     </row>
-    <row r="115" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="115" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="48">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -7373,7 +7334,7 @@
       <c r="N115" s="56"/>
       <c r="O115" s="57"/>
     </row>
-    <row r="116" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="116" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="48">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -7414,7 +7375,7 @@
       <c r="N116" s="56"/>
       <c r="O116" s="57"/>
     </row>
-    <row r="117" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="117" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="48">
         <f t="shared" si="5"/>
         <v>101</v>
@@ -7455,7 +7416,7 @@
       <c r="N117" s="56"/>
       <c r="O117" s="57"/>
     </row>
-    <row r="118" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="118" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="48">
         <f t="shared" si="5"/>
         <v>102</v>
@@ -7496,7 +7457,7 @@
       <c r="N118" s="56"/>
       <c r="O118" s="57"/>
     </row>
-    <row r="119" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="119" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="48">
         <f t="shared" si="5"/>
         <v>103</v>
@@ -7537,7 +7498,7 @@
       <c r="N119" s="56"/>
       <c r="O119" s="57"/>
     </row>
-    <row r="120" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="120" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="48">
         <f t="shared" si="5"/>
         <v>104</v>
@@ -7578,7 +7539,7 @@
       <c r="N120" s="56"/>
       <c r="O120" s="57"/>
     </row>
-    <row r="121" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="121" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="48">
         <f t="shared" si="5"/>
         <v>105</v>
@@ -7619,7 +7580,7 @@
       <c r="N121" s="56"/>
       <c r="O121" s="57"/>
     </row>
-    <row r="122" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="122" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="48">
         <f t="shared" si="5"/>
         <v>106</v>
@@ -7660,7 +7621,7 @@
       <c r="N122" s="56"/>
       <c r="O122" s="57"/>
     </row>
-    <row r="123" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="123" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="48" t="str">
         <f t="shared" ref="B123" si="9">IF(G123&lt;&gt;"",ROW()-16,"")</f>
         <v/>
@@ -7679,7 +7640,7 @@
       <c r="N123" s="56"/>
       <c r="O123" s="57"/>
     </row>
-    <row r="124" spans="2:15" s="67" customFormat="1" ht="21.75" customHeight="1">
+    <row r="124" spans="2:15" s="67" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="68" t="s">
         <v>11</v>
       </c>
@@ -7702,7 +7663,7 @@
       <c r="M124" s="70"/>
       <c r="N124" s="57"/>
     </row>
-    <row r="125" spans="2:15" s="67" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="125" spans="2:15" s="67" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="73"/>
       <c r="C125" s="74"/>
       <c r="D125" s="75"/>
@@ -7717,7 +7678,7 @@
       <c r="M125" s="78"/>
       <c r="N125" s="57"/>
     </row>
-    <row r="126" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="126" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="79" t="s">
         <v>70</v>
       </c>
@@ -7734,7 +7695,7 @@
       <c r="M126" s="83"/>
       <c r="N126" s="57"/>
     </row>
-    <row r="127" spans="2:15" s="67" customFormat="1" ht="21.75" customHeight="1">
+    <row r="127" spans="2:15" s="67" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="68" t="s">
         <v>11</v>
       </c>
@@ -7751,7 +7712,7 @@
       <c r="M127" s="70"/>
       <c r="N127" s="57"/>
     </row>
-    <row r="128" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="128" spans="2:15" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="79" t="s">
         <v>71</v>
       </c>
@@ -7768,7 +7729,7 @@
       <c r="M128" s="83"/>
       <c r="N128" s="57"/>
     </row>
-    <row r="129" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="129" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="47"/>
       <c r="C129" s="85"/>
       <c r="D129" s="85"/>
@@ -7783,7 +7744,7 @@
       <c r="M129" s="85"/>
       <c r="N129" s="57"/>
     </row>
-    <row r="130" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1">
+    <row r="130" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="68" t="s">
         <v>11</v>
       </c>
@@ -7800,7 +7761,7 @@
       <c r="M130" s="70"/>
       <c r="N130" s="57"/>
     </row>
-    <row r="131" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1">
+    <row r="131" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="79" t="s">
         <v>72</v>
       </c>
@@ -7817,7 +7778,7 @@
       <c r="M131" s="83"/>
       <c r="N131" s="57"/>
     </row>
-    <row r="132" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1">
+    <row r="132" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="47"/>
       <c r="C132" s="85"/>
       <c r="D132" s="85"/>
@@ -7832,7 +7793,7 @@
       <c r="M132" s="85"/>
       <c r="N132" s="57"/>
     </row>
-    <row r="133" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1">
+    <row r="133" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="68" t="s">
         <v>11</v>
       </c>
@@ -7849,7 +7810,7 @@
       <c r="M133" s="70"/>
       <c r="N133" s="57"/>
     </row>
-    <row r="134" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="134" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="79" t="s">
         <v>40</v>
       </c>
@@ -7866,7 +7827,7 @@
       <c r="M134" s="83"/>
       <c r="N134" s="57"/>
     </row>
-    <row r="135" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1">
+    <row r="135" spans="2:14" s="37" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="47"/>
       <c r="C135" s="85"/>
       <c r="D135" s="85"/>
@@ -7881,7 +7842,7 @@
       <c r="M135" s="85"/>
       <c r="N135" s="57"/>
     </row>
-    <row r="136" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1">
+    <row r="136" spans="2:14" s="67" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="68" t="s">
         <v>11</v>
       </c>
@@ -7898,7 +7859,7 @@
       <c r="M136" s="70"/>
       <c r="N136" s="88"/>
     </row>
-    <row r="137" spans="2:14" s="37" customFormat="1">
+    <row r="137" spans="2:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D137" s="38"/>
       <c r="E137" s="39"/>
       <c r="F137" s="37" t="s">
@@ -7914,7 +7875,7 @@
       <c r="M137" s="38"/>
       <c r="N137" s="57"/>
     </row>
-    <row r="138" spans="2:14" s="37" customFormat="1">
+    <row r="138" spans="2:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D138" s="38"/>
       <c r="E138" s="39"/>
       <c r="F138" s="37" t="s">
@@ -7930,7 +7891,7 @@
       <c r="M138" s="38"/>
       <c r="N138" s="57"/>
     </row>
-    <row r="139" spans="2:14" s="37" customFormat="1">
+    <row r="139" spans="2:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="89"/>
       <c r="C139" s="89"/>
       <c r="D139" s="38"/>
@@ -7946,7 +7907,7 @@
       <c r="K139" s="115"/>
       <c r="N139" s="57"/>
     </row>
-    <row r="140" spans="2:14" s="37" customFormat="1">
+    <row r="140" spans="2:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D140" s="38"/>
       <c r="E140" s="39"/>
       <c r="F140" s="38"/>
@@ -7960,7 +7921,7 @@
       <c r="L140" s="113"/>
       <c r="M140" s="113"/>
     </row>
-    <row r="141" spans="2:14" s="37" customFormat="1">
+    <row r="141" spans="2:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D141" s="38"/>
       <c r="E141" s="39"/>
       <c r="F141" s="38"/>
@@ -7974,7 +7935,7 @@
       <c r="L141" s="113"/>
       <c r="M141" s="113"/>
     </row>
-    <row r="142" spans="2:14" s="37" customFormat="1">
+    <row r="142" spans="2:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D142" s="38"/>
       <c r="E142" s="39"/>
       <c r="F142" s="38"/>
@@ -7988,7 +7949,7 @@
       <c r="L142" s="113"/>
       <c r="M142" s="113"/>
     </row>
-    <row r="143" spans="2:14" s="37" customFormat="1">
+    <row r="143" spans="2:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D143" s="38"/>
       <c r="E143" s="39"/>
       <c r="F143" s="38"/>
@@ -8004,11 +7965,6 @@
     <sortCondition ref="F240:F249"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -8018,6 +7974,11 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -8046,7 +8007,7 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="15" customWidth="1"/>
@@ -8064,7 +8025,7 @@
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -8075,7 +8036,7 @@
       <c r="I1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -8086,7 +8047,7 @@
       <c r="I2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="16"/>
@@ -8097,69 +8058,69 @@
       <c r="I3" s="16"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:14" ht="28.5" customHeight="1">
-      <c r="B4" s="135" t="s">
+    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-    </row>
-    <row r="5" spans="1:14" hidden="1">
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="137" t="s">
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="137" t="str">
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="133" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F28)</f>
         <v>Kỳ tính thuế: Tháng 5 Năm 2011</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="16"/>
@@ -8170,73 +8131,73 @@
       <c r="I8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="133" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-    </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1">
-      <c r="B12" s="134" t="s">
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="134" t="s">
+      <c r="I12" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="134" t="s">
+      <c r="J12" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="134" t="s">
+      <c r="K12" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="134" t="s">
+      <c r="L12" s="137" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="4.5" customHeight="1">
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-    </row>
-    <row r="14" spans="1:14" ht="40.5" customHeight="1">
-      <c r="B14" s="134"/>
+    <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+    </row>
+    <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="137"/>
       <c r="C14" s="114" t="s">
         <v>43</v>
       </c>
@@ -8249,17 +8210,17 @@
       <c r="F14" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
       <c r="N14" s="118">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -8294,22 +8255,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21" customHeight="1">
-      <c r="B16" s="131" t="s">
+    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
+    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -8322,7 +8283,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1">
+    <row r="18" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
@@ -8337,22 +8298,22 @@
       <c r="K18" s="24"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1">
-      <c r="B19" s="131" t="s">
+    <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1">
+    <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -8365,7 +8326,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1">
+    <row r="21" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="23" t="s">
         <v>11</v>
       </c>
@@ -8380,22 +8341,22 @@
       <c r="K21" s="24"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="2:12" ht="21" customHeight="1">
-      <c r="B22" s="131" t="s">
+    <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="2:12" ht="21" customHeight="1">
+    <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -8408,7 +8369,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1">
+    <row r="24" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
         <v>11</v>
       </c>
@@ -8423,7 +8384,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1">
+    <row r="25" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="116" t="s">
         <v>14</v>
       </c>
@@ -8438,7 +8399,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="2:12" ht="21" customHeight="1">
+    <row r="26" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <f>IF(G26&lt;&gt;"",ROW()-25,"")</f>
         <v>1</v>
@@ -8475,7 +8436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21" customHeight="1">
+    <row r="27" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <f t="shared" ref="B27:B90" si="1">IF(G27&lt;&gt;"",ROW()-25,"")</f>
         <v>2</v>
@@ -8512,7 +8473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21" customHeight="1">
+    <row r="28" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -8549,7 +8510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21" customHeight="1">
+    <row r="29" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -8586,7 +8547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21" customHeight="1">
+    <row r="30" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -8623,7 +8584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21" customHeight="1">
+    <row r="31" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -8660,7 +8621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21" customHeight="1">
+    <row r="32" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -8697,7 +8658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21" customHeight="1">
+    <row r="33" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -8734,7 +8695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21" customHeight="1">
+    <row r="34" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -8771,7 +8732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21" customHeight="1">
+    <row r="35" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8808,7 +8769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21" customHeight="1">
+    <row r="36" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -8845,7 +8806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21" customHeight="1">
+    <row r="37" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8882,7 +8843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21" customHeight="1">
+    <row r="38" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -8919,7 +8880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21" customHeight="1">
+    <row r="39" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -8956,7 +8917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="21" customHeight="1">
+    <row r="40" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8993,7 +8954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="21" customHeight="1">
+    <row r="41" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -9030,7 +8991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="21" customHeight="1">
+    <row r="42" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -9067,7 +9028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="21" customHeight="1">
+    <row r="43" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -9104,7 +9065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21" customHeight="1">
+    <row r="44" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -9141,7 +9102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="21" customHeight="1">
+    <row r="45" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -9178,7 +9139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="21" customHeight="1">
+    <row r="46" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -9215,7 +9176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21" customHeight="1">
+    <row r="47" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -9252,7 +9213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21" customHeight="1">
+    <row r="48" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -9289,7 +9250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21" customHeight="1">
+    <row r="49" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -9326,7 +9287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21" customHeight="1">
+    <row r="50" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -9363,7 +9324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="21" customHeight="1">
+    <row r="51" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -9400,7 +9361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="21" customHeight="1">
+    <row r="52" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -9437,7 +9398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="21" customHeight="1">
+    <row r="53" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -9474,7 +9435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="21" customHeight="1">
+    <row r="54" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -9511,7 +9472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="21" customHeight="1">
+    <row r="55" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -9548,7 +9509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="21" customHeight="1">
+    <row r="56" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -9585,7 +9546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="21" customHeight="1">
+    <row r="57" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -9622,7 +9583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="21" customHeight="1">
+    <row r="58" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -9659,7 +9620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="21" customHeight="1">
+    <row r="59" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -9696,7 +9657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="21" customHeight="1">
+    <row r="60" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -9733,7 +9694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="21" customHeight="1">
+    <row r="61" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -9770,7 +9731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="21" customHeight="1">
+    <row r="62" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -9807,7 +9768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="21" customHeight="1">
+    <row r="63" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -9844,7 +9805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="21" customHeight="1">
+    <row r="64" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -9881,7 +9842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="21" customHeight="1">
+    <row r="65" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9918,7 +9879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="21" customHeight="1">
+    <row r="66" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -9955,7 +9916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="21" customHeight="1">
+    <row r="67" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -9992,7 +9953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="21" customHeight="1">
+    <row r="68" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -10029,7 +9990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="21" customHeight="1">
+    <row r="69" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -10066,7 +10027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="21" customHeight="1">
+    <row r="70" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -10103,7 +10064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="21" customHeight="1">
+    <row r="71" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -10140,7 +10101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="21" customHeight="1">
+    <row r="72" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -10177,7 +10138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="21" customHeight="1">
+    <row r="73" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -10214,7 +10175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="21" customHeight="1">
+    <row r="74" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="9">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -10251,7 +10212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="21" customHeight="1">
+    <row r="75" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -10288,7 +10249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="21" customHeight="1">
+    <row r="76" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -10325,7 +10286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="21" customHeight="1">
+    <row r="77" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -10362,7 +10323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="21" customHeight="1">
+    <row r="78" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -10399,7 +10360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="21" customHeight="1">
+    <row r="79" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -10436,7 +10397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="21" customHeight="1">
+    <row r="80" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -10473,7 +10434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="21" customHeight="1">
+    <row r="81" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -10510,7 +10471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="21" customHeight="1">
+    <row r="82" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -10547,7 +10508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="21" customHeight="1">
+    <row r="83" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -10584,7 +10545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="21" customHeight="1">
+    <row r="84" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -10621,7 +10582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="21" customHeight="1">
+    <row r="85" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -10658,7 +10619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="21" customHeight="1">
+    <row r="86" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -10695,7 +10656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="21" customHeight="1">
+    <row r="87" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -10732,7 +10693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="21" customHeight="1">
+    <row r="88" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -10769,7 +10730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="21" customHeight="1">
+    <row r="89" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -10806,7 +10767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="21" customHeight="1">
+    <row r="90" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="9">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -10843,7 +10804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="21" customHeight="1">
+    <row r="91" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9">
         <f t="shared" ref="B91:B104" si="3">IF(G91&lt;&gt;"",ROW()-25,"")</f>
         <v>66</v>
@@ -10880,7 +10841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="21" customHeight="1">
+    <row r="92" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -10917,7 +10878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="21" customHeight="1">
+    <row r="93" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -10954,7 +10915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="21" customHeight="1">
+    <row r="94" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -10991,7 +10952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="21" customHeight="1">
+    <row r="95" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -11028,7 +10989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="21" customHeight="1">
+    <row r="96" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -11065,7 +11026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="21" customHeight="1">
+    <row r="97" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -11102,7 +11063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="21" customHeight="1">
+    <row r="98" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -11139,7 +11100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="21" customHeight="1">
+    <row r="99" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -11176,7 +11137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="21" customHeight="1">
+    <row r="100" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="9">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -11213,7 +11174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="21" customHeight="1">
+    <row r="101" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="9">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -11250,7 +11211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="21" customHeight="1">
+    <row r="102" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="9">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -11287,7 +11248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="21" customHeight="1">
+    <row r="103" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -11324,7 +11285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="21" customHeight="1">
+    <row r="104" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="9">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -11361,7 +11322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="21" customHeight="1">
+    <row r="105" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="9"/>
       <c r="C105" s="32"/>
       <c r="D105" s="32"/>
@@ -11374,7 +11335,7 @@
       <c r="K105" s="13"/>
       <c r="L105" s="14"/>
     </row>
-    <row r="106" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1">
+    <row r="106" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="28" t="s">
         <v>11</v>
       </c>
@@ -11395,23 +11356,23 @@
       </c>
       <c r="L106" s="30"/>
     </row>
-    <row r="107" spans="2:12" ht="21" hidden="1" customHeight="1"/>
-    <row r="108" spans="2:12" ht="21" customHeight="1">
-      <c r="B108" s="131" t="s">
+    <row r="107" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="132"/>
-      <c r="D108" s="132"/>
-      <c r="E108" s="132"/>
-      <c r="F108" s="132"/>
-      <c r="G108" s="132"/>
-      <c r="H108" s="132"/>
-      <c r="I108" s="132"/>
+      <c r="C108" s="135"/>
+      <c r="D108" s="135"/>
+      <c r="E108" s="135"/>
+      <c r="F108" s="135"/>
+      <c r="G108" s="135"/>
+      <c r="H108" s="135"/>
+      <c r="I108" s="135"/>
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
       <c r="L108" s="25"/>
     </row>
-    <row r="109" spans="2:12" ht="21" customHeight="1">
+    <row r="109" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -11424,7 +11385,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="8"/>
     </row>
-    <row r="110" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1">
+    <row r="110" spans="2:12" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="23" t="s">
         <v>11</v>
       </c>
@@ -11439,7 +11400,7 @@
       <c r="K110" s="24"/>
       <c r="L110" s="23"/>
     </row>
-    <row r="111" spans="2:12">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -11454,7 +11415,7 @@
       <c r="I111" s="16"/>
       <c r="L111" s="16"/>
     </row>
-    <row r="112" spans="2:12">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -11469,7 +11430,7 @@
       <c r="I112" s="16"/>
       <c r="L112" s="16"/>
     </row>
-    <row r="113" spans="2:12" ht="8.25" customHeight="1">
+    <row r="113" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="31"/>
       <c r="C113" s="31"/>
       <c r="D113" s="16"/>
@@ -11480,7 +11441,7 @@
       <c r="I113" s="16"/>
       <c r="L113" s="16"/>
     </row>
-    <row r="114" spans="2:12">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" s="31"/>
       <c r="C114" s="31"/>
       <c r="D114" s="16"/>
@@ -11493,7 +11454,7 @@
         <v>Bình Dương, FALSENăm  2011</v>
       </c>
     </row>
-    <row r="115" spans="2:12">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -11505,7 +11466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="2:12">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -11517,7 +11478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="2:12">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -11529,7 +11490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:12">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -11543,11 +11504,6 @@
   </sheetData>
   <autoFilter ref="A25:N104"/>
   <mergeCells count="17">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B108:I108"/>
@@ -11560,6 +11516,11 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -11586,7 +11547,7 @@
       <selection activeCell="R14" sqref="R14:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" customWidth="1"/>
@@ -11600,48 +11561,48 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:19">
-      <c r="B2" s="141" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
       <c r="R2" s="11" t="s">
         <v>328</v>
       </c>
       <c r="S2" s="94"/>
     </row>
-    <row r="3" spans="2:19">
-      <c r="B3" s="144" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="146"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
       <c r="R3" s="11" t="s">
         <v>329</v>
       </c>
@@ -11649,70 +11610,70 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="95"/>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="147"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="143"/>
       <c r="R4" s="11" t="s">
         <v>330</v>
       </c>
       <c r="S4" s="94"/>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="95"/>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="147"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="143"/>
       <c r="R5" s="11" t="s">
         <v>331</v>
       </c>
       <c r="S5" s="94"/>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="95"/>
       <c r="C6" s="96"/>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="140"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="139"/>
       <c r="R6" s="11" t="s">
         <v>332</v>
       </c>
@@ -11720,24 +11681,24 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="95"/>
       <c r="C7" s="96"/>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="140"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="139"/>
       <c r="R7" s="11" t="s">
         <v>333</v>
       </c>
@@ -11745,24 +11706,24 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="95"/>
       <c r="C8" s="96"/>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
       <c r="R8" s="11" t="s">
         <v>334</v>
       </c>
@@ -11770,24 +11731,24 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="95"/>
       <c r="C9" s="96"/>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="140"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
       <c r="R9" s="11" t="s">
         <v>335</v>
       </c>
@@ -11795,24 +11756,24 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="140"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
       <c r="R10" s="11" t="s">
         <v>336</v>
       </c>
@@ -11820,24 +11781,24 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="95"/>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="147"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="143"/>
       <c r="R11" s="11" t="s">
         <v>337</v>
       </c>
@@ -11845,24 +11806,24 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="95"/>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="147"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="143"/>
       <c r="R12" s="11" t="s">
         <v>338</v>
       </c>
@@ -11870,7 +11831,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
@@ -11893,24 +11854,24 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="144" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="146"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="151"/>
       <c r="R14" s="11" t="s">
         <v>340</v>
       </c>
@@ -11918,24 +11879,24 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="95"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="147"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="143"/>
       <c r="R15" s="11" t="s">
         <v>341</v>
       </c>
@@ -11943,28 +11904,28 @@
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="95"/>
       <c r="C16" s="98"/>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="140"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
       <c r="R16" s="11"/>
       <c r="S16" s="94"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="95"/>
       <c r="C17" s="98"/>
       <c r="D17" s="99" t="s">
@@ -11985,196 +11946,196 @@
       <c r="R17" s="11"/>
       <c r="S17" s="94"/>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="95"/>
       <c r="C18" s="96"/>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="140"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
       <c r="R18" s="11"/>
       <c r="S18" s="94"/>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
-      <c r="D19" s="139" t="s">
+      <c r="D19" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="140"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
       <c r="R19" s="11"/>
       <c r="S19" s="94"/>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="95"/>
       <c r="C20" s="96"/>
-      <c r="D20" s="139" t="s">
+      <c r="D20" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="140"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
       <c r="R20" s="11"/>
       <c r="S20" s="94"/>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="95"/>
       <c r="C21" s="96"/>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="140"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
       <c r="R21" s="11"/>
       <c r="S21" s="94"/>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="95"/>
       <c r="C22" s="96"/>
-      <c r="D22" s="139" t="s">
+      <c r="D22" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="140"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
       <c r="R22" s="11"/>
       <c r="S22" s="94"/>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="95"/>
       <c r="C23" s="96"/>
-      <c r="D23" s="139" t="s">
+      <c r="D23" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="140"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
       <c r="R23" s="11"/>
       <c r="S23" s="94"/>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="95"/>
       <c r="C24" s="96"/>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="140"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
       <c r="R24" s="11"/>
       <c r="S24" s="94"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="95"/>
       <c r="C25" s="96"/>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="140"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
       <c r="R25" s="11"/>
       <c r="S25" s="94"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="95"/>
       <c r="C26" s="96"/>
-      <c r="D26" s="139" t="s">
+      <c r="D26" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="140"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
       <c r="R26" s="11"/>
       <c r="S26" s="94"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="95"/>
       <c r="C27" s="96"/>
       <c r="D27" s="96"/>
@@ -12193,166 +12154,166 @@
       <c r="R27" s="11"/>
       <c r="S27" s="94"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="95"/>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="147"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="143"/>
       <c r="R28" s="11"/>
       <c r="S28" s="94"/>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="95"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="140"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="139"/>
       <c r="R29" s="11"/>
       <c r="S29" s="94"/>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="95"/>
       <c r="C30" s="96"/>
-      <c r="D30" s="139" t="s">
+      <c r="D30" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="140"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="139"/>
       <c r="R30" s="11"/>
       <c r="S30" s="94"/>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="95"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="140"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="139"/>
       <c r="R31" s="11"/>
       <c r="S31" s="94"/>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="95"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="139" t="s">
+      <c r="D32" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="140"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="139"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="2:19" ht="24" customHeight="1">
+    <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="95"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="150" t="s">
+      <c r="D33" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
-      <c r="P33" s="151"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="145"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75" thickBot="1">
+    <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="149"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="141"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="2:19" ht="12.75" customHeight="1">
+    <row r="38" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
       <c r="F38" s="103"/>
@@ -12367,7 +12328,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D39" s="103"/>
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
@@ -12382,7 +12343,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D40" s="103"/>
       <c r="E40" s="103"/>
       <c r="F40" s="103"/>
@@ -12397,7 +12358,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D41" s="103"/>
       <c r="E41" s="103"/>
       <c r="F41" s="103"/>
@@ -12412,7 +12373,7 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D42" s="103"/>
       <c r="E42" s="103"/>
       <c r="F42" s="103"/>
@@ -12427,7 +12388,7 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D43" s="103"/>
       <c r="E43" s="103"/>
       <c r="F43" s="103"/>
@@ -12442,7 +12403,7 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D44" s="103"/>
       <c r="E44" s="103"/>
       <c r="F44" s="103"/>
@@ -12457,7 +12418,7 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D45" s="103"/>
       <c r="E45" s="103"/>
       <c r="F45" s="103"/>
@@ -12472,7 +12433,7 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D46" s="103"/>
       <c r="E46" s="103"/>
       <c r="F46" s="103"/>
@@ -12487,7 +12448,7 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D47" s="103"/>
       <c r="E47" s="103"/>
       <c r="F47" s="103"/>
@@ -12502,7 +12463,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D48" s="103"/>
       <c r="E48" s="103"/>
       <c r="F48" s="103"/>
@@ -12517,7 +12478,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
     </row>
-    <row r="49" spans="4:19">
+    <row r="49" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D49" s="103"/>
       <c r="E49" s="103"/>
       <c r="F49" s="103"/>
@@ -12532,7 +12493,7 @@
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
     </row>
-    <row r="50" spans="4:19">
+    <row r="50" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D50" s="103"/>
       <c r="E50" s="103"/>
       <c r="F50" s="103"/>
@@ -12547,7 +12508,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
     </row>
-    <row r="51" spans="4:19">
+    <row r="51" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D51" s="103"/>
       <c r="E51" s="103"/>
       <c r="F51" s="103"/>
@@ -12562,7 +12523,7 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="4:19">
+    <row r="52" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D52" s="103"/>
       <c r="E52" s="103"/>
       <c r="F52" s="103"/>
@@ -12577,7 +12538,7 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
     </row>
-    <row r="53" spans="4:19">
+    <row r="53" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D53" s="103"/>
       <c r="E53" s="103"/>
       <c r="F53" s="103"/>
@@ -12592,7 +12553,7 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
     </row>
-    <row r="54" spans="4:19">
+    <row r="54" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D54" s="103"/>
       <c r="E54" s="103"/>
       <c r="F54" s="103"/>
@@ -12607,7 +12568,7 @@
       <c r="R54" s="11"/>
       <c r="S54" s="94"/>
     </row>
-    <row r="55" spans="4:19">
+    <row r="55" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D55" s="103"/>
       <c r="E55" s="103"/>
       <c r="F55" s="103"/>
@@ -12622,7 +12583,7 @@
       <c r="R55" s="11"/>
       <c r="S55" s="94"/>
     </row>
-    <row r="56" spans="4:19">
+    <row r="56" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D56" s="103"/>
       <c r="E56" s="103"/>
       <c r="F56" s="103"/>
@@ -12637,7 +12598,7 @@
       <c r="R56" s="11"/>
       <c r="S56" s="94"/>
     </row>
-    <row r="57" spans="4:19">
+    <row r="57" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D57" s="103"/>
       <c r="E57" s="103"/>
       <c r="F57" s="103"/>
@@ -12652,7 +12613,7 @@
       <c r="R57" s="11"/>
       <c r="S57" s="94"/>
     </row>
-    <row r="58" spans="4:19">
+    <row r="58" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D58" s="103"/>
       <c r="E58" s="103"/>
       <c r="F58" s="103"/>
@@ -12667,7 +12628,7 @@
       <c r="R58" s="11"/>
       <c r="S58" s="94"/>
     </row>
-    <row r="59" spans="4:19">
+    <row r="59" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D59" s="103"/>
       <c r="E59" s="103"/>
       <c r="F59" s="103"/>
@@ -12682,7 +12643,7 @@
       <c r="R59" s="11"/>
       <c r="S59" s="94"/>
     </row>
-    <row r="60" spans="4:19">
+    <row r="60" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D60" s="103"/>
       <c r="E60" s="103"/>
       <c r="F60" s="103"/>
@@ -12697,7 +12658,7 @@
       <c r="R60" s="11"/>
       <c r="S60" s="94"/>
     </row>
-    <row r="61" spans="4:19">
+    <row r="61" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D61" s="103"/>
       <c r="E61" s="103"/>
       <c r="F61" s="103"/>
@@ -12712,7 +12673,7 @@
       <c r="R61" s="11"/>
       <c r="S61" s="94"/>
     </row>
-    <row r="62" spans="4:19">
+    <row r="62" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D62" s="103"/>
       <c r="E62" s="103"/>
       <c r="F62" s="103"/>
@@ -12727,7 +12688,7 @@
       <c r="R62" s="11"/>
       <c r="S62" s="94"/>
     </row>
-    <row r="63" spans="4:19">
+    <row r="63" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D63" s="103"/>
       <c r="E63" s="103"/>
       <c r="F63" s="103"/>
@@ -12742,7 +12703,7 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
     </row>
-    <row r="64" spans="4:19">
+    <row r="64" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D64" s="103"/>
       <c r="E64" s="103"/>
       <c r="F64" s="103"/>
@@ -12757,7 +12718,7 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
     </row>
-    <row r="65" spans="4:19">
+    <row r="65" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D65" s="103"/>
       <c r="E65" s="103"/>
       <c r="F65" s="103"/>
@@ -12772,7 +12733,7 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
     </row>
-    <row r="66" spans="4:19">
+    <row r="66" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D66" s="103"/>
       <c r="E66" s="103"/>
       <c r="F66" s="103"/>
@@ -12785,7 +12746,7 @@
       <c r="M66" s="103"/>
       <c r="N66" s="103"/>
     </row>
-    <row r="67" spans="4:19">
+    <row r="67" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D67" s="103"/>
       <c r="E67" s="103"/>
       <c r="F67" s="103"/>
@@ -12798,7 +12759,7 @@
       <c r="M67" s="103"/>
       <c r="N67" s="103"/>
     </row>
-    <row r="68" spans="4:19">
+    <row r="68" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D68" s="103"/>
       <c r="E68" s="103"/>
       <c r="F68" s="103"/>
@@ -12811,7 +12772,7 @@
       <c r="M68" s="103"/>
       <c r="N68" s="103"/>
     </row>
-    <row r="69" spans="4:19">
+    <row r="69" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D69" s="103"/>
       <c r="E69" s="103"/>
       <c r="F69" s="103"/>
@@ -12824,7 +12785,7 @@
       <c r="M69" s="103"/>
       <c r="N69" s="103"/>
     </row>
-    <row r="70" spans="4:19">
+    <row r="70" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D70" s="103"/>
       <c r="E70" s="103"/>
       <c r="F70" s="103"/>
@@ -12837,7 +12798,7 @@
       <c r="M70" s="103"/>
       <c r="N70" s="103"/>
     </row>
-    <row r="71" spans="4:19">
+    <row r="71" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D71" s="103"/>
       <c r="E71" s="103"/>
       <c r="F71" s="103"/>
@@ -12850,7 +12811,7 @@
       <c r="M71" s="103"/>
       <c r="N71" s="103"/>
     </row>
-    <row r="72" spans="4:19">
+    <row r="72" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D72" s="103"/>
       <c r="E72" s="103"/>
       <c r="F72" s="103"/>
@@ -12863,7 +12824,7 @@
       <c r="M72" s="103"/>
       <c r="N72" s="103"/>
     </row>
-    <row r="73" spans="4:19">
+    <row r="73" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D73" s="103"/>
       <c r="E73" s="103"/>
       <c r="F73" s="103"/>
@@ -12876,7 +12837,7 @@
       <c r="M73" s="103"/>
       <c r="N73" s="103"/>
     </row>
-    <row r="74" spans="4:19">
+    <row r="74" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D74" s="103"/>
       <c r="E74" s="103"/>
       <c r="F74" s="103"/>
@@ -12889,7 +12850,7 @@
       <c r="M74" s="103"/>
       <c r="N74" s="103"/>
     </row>
-    <row r="75" spans="4:19">
+    <row r="75" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D75" s="103"/>
       <c r="E75" s="103"/>
       <c r="F75" s="103"/>
@@ -12902,7 +12863,7 @@
       <c r="M75" s="103"/>
       <c r="N75" s="103"/>
     </row>
-    <row r="76" spans="4:19">
+    <row r="76" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D76" s="103"/>
       <c r="E76" s="103"/>
       <c r="F76" s="103"/>
@@ -12915,7 +12876,7 @@
       <c r="M76" s="103"/>
       <c r="N76" s="103"/>
     </row>
-    <row r="77" spans="4:19">
+    <row r="77" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D77" s="103"/>
       <c r="E77" s="103"/>
       <c r="F77" s="103"/>
@@ -12928,7 +12889,7 @@
       <c r="M77" s="103"/>
       <c r="N77" s="103"/>
     </row>
-    <row r="78" spans="4:19">
+    <row r="78" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D78" s="103"/>
       <c r="E78" s="103"/>
       <c r="F78" s="103"/>
@@ -12941,7 +12902,7 @@
       <c r="M78" s="103"/>
       <c r="N78" s="103"/>
     </row>
-    <row r="79" spans="4:19">
+    <row r="79" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D79" s="103"/>
       <c r="E79" s="103"/>
       <c r="F79" s="103"/>
@@ -12954,7 +12915,7 @@
       <c r="M79" s="103"/>
       <c r="N79" s="103"/>
     </row>
-    <row r="80" spans="4:19">
+    <row r="80" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D80" s="103"/>
       <c r="E80" s="103"/>
       <c r="F80" s="103"/>
@@ -12969,22 +12930,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -12999,6 +12944,22 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13013,11 +12974,11 @@
   </sheetPr>
   <dimension ref="B1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:T27"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="104" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="104" customWidth="1"/>
@@ -13031,49 +12992,49 @@
     <col min="21" max="16384" width="9.140625" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:20" ht="13.5" customHeight="1">
-      <c r="B2" s="163" t="s">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
       <c r="R2" s="62" t="s">
         <v>363</v>
       </c>
       <c r="S2" s="94"/>
       <c r="T2" s="59"/>
     </row>
-    <row r="3" spans="2:20" ht="13.5" customHeight="1">
-      <c r="B3" s="160" t="s">
+    <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="162"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
       <c r="R3" s="62" t="s">
         <v>158</v>
       </c>
@@ -13084,24 +13045,24 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="13.5" customHeight="1">
+    <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="105"/>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="157"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="159"/>
       <c r="R4" s="62" t="s">
         <v>159</v>
       </c>
@@ -13112,24 +13073,24 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="13.5" customHeight="1">
+    <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="105"/>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="159"/>
       <c r="R5" s="62" t="s">
         <v>160</v>
       </c>
@@ -13140,24 +13101,24 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="13.5" customHeight="1">
+    <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="105"/>
       <c r="C6" s="106"/>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="159"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
       <c r="R6" s="62" t="s">
         <v>161</v>
       </c>
@@ -13168,24 +13129,24 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="13.5" customHeight="1">
+    <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="105"/>
       <c r="C7" s="106"/>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="159"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="161"/>
       <c r="R7" s="62" t="s">
         <v>162</v>
       </c>
@@ -13196,24 +13157,24 @@
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="13.5" customHeight="1">
+    <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="105"/>
       <c r="C8" s="106"/>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="159"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="161"/>
       <c r="R8" s="62" t="s">
         <v>163</v>
       </c>
@@ -13224,24 +13185,24 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="13.5" customHeight="1">
+    <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="159"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="161"/>
       <c r="R9" s="62" t="s">
         <v>208</v>
       </c>
@@ -13252,24 +13213,24 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="13.5" customHeight="1">
+    <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="106"/>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="161"/>
       <c r="R10" s="62" t="s">
         <v>209</v>
       </c>
@@ -13280,24 +13241,24 @@
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" customHeight="1">
+    <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="105"/>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="157"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="159"/>
       <c r="R11" s="62" t="s">
         <v>258</v>
       </c>
@@ -13308,24 +13269,24 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="13.5" customHeight="1">
+    <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="105"/>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="157"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="159"/>
       <c r="R12" s="52" t="s">
         <v>157</v>
       </c>
@@ -13336,7 +13297,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="13.5" customHeight="1">
+    <row r="13" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="105"/>
       <c r="C13" s="106"/>
       <c r="D13" s="106"/>
@@ -13362,24 +13323,24 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="13.5" customHeight="1">
-      <c r="B14" s="160" t="s">
+    <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="162"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
       <c r="R14" s="62" t="s">
         <v>165</v>
       </c>
@@ -13390,24 +13351,24 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="13.5" customHeight="1">
+    <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="105"/>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="157"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="159"/>
       <c r="R15" s="62" t="s">
         <v>166</v>
       </c>
@@ -13418,24 +13379,24 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="13.5" customHeight="1">
+    <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="108"/>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="161"/>
       <c r="R16" s="62" t="s">
         <v>167</v>
       </c>
@@ -13446,7 +13407,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="13.5" customHeight="1">
+    <row r="17" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="105"/>
       <c r="C17" s="108"/>
       <c r="D17" s="109" t="s">
@@ -13474,24 +13435,24 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="13.5" customHeight="1">
+    <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="105"/>
       <c r="C18" s="106"/>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="161"/>
       <c r="R18" s="62" t="s">
         <v>210</v>
       </c>
@@ -13502,24 +13463,24 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="13.5" customHeight="1">
+    <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="161"/>
       <c r="R19" s="62" t="s">
         <v>211</v>
       </c>
@@ -13530,24 +13491,24 @@
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="105"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="161"/>
       <c r="R20" s="62" t="s">
         <v>169</v>
       </c>
@@ -13558,24 +13519,24 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="105"/>
       <c r="C21" s="106"/>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="161"/>
       <c r="R21" s="62" t="s">
         <v>170</v>
       </c>
@@ -13586,24 +13547,24 @@
         <v>377</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="105"/>
       <c r="C22" s="106"/>
-      <c r="D22" s="158" t="s">
+      <c r="D22" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="161"/>
       <c r="R22" s="62" t="s">
         <v>171</v>
       </c>
@@ -13614,24 +13575,24 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="105"/>
       <c r="C23" s="106"/>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="161"/>
       <c r="R23" s="62" t="s">
         <v>172</v>
       </c>
@@ -13642,24 +13603,24 @@
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="105"/>
       <c r="C24" s="106"/>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="161"/>
       <c r="R24" s="62" t="s">
         <v>173</v>
       </c>
@@ -13670,24 +13631,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="105"/>
       <c r="C25" s="106"/>
-      <c r="D25" s="158" t="s">
+      <c r="D25" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="159"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="161"/>
       <c r="R25" s="62" t="s">
         <v>206</v>
       </c>
@@ -13698,24 +13659,24 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="105"/>
       <c r="C26" s="106"/>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="161"/>
       <c r="R26" s="62" t="s">
         <v>259</v>
       </c>
@@ -13726,24 +13687,24 @@
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="105"/>
       <c r="C27" s="106"/>
-      <c r="D27" s="158" t="s">
+      <c r="D27" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="161"/>
       <c r="R27" s="62" t="s">
         <v>260</v>
       </c>
@@ -13754,7 +13715,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="105"/>
       <c r="C28" s="106"/>
       <c r="D28" s="106"/>
@@ -13780,254 +13741,274 @@
         <v>406</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="105"/>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="157"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="159"/>
       <c r="R29" s="62"/>
       <c r="S29" s="94"/>
       <c r="T29" s="94"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="105"/>
       <c r="C30" s="106"/>
-      <c r="D30" s="158" t="s">
+      <c r="D30" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="161"/>
       <c r="R30" s="62"/>
       <c r="S30" s="94"/>
       <c r="T30" s="94"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="105"/>
       <c r="C31" s="106"/>
-      <c r="D31" s="158" t="s">
+      <c r="D31" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
+      <c r="P31" s="161"/>
       <c r="R31" s="62"/>
       <c r="S31" s="94"/>
       <c r="T31" s="94"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="105"/>
       <c r="C32" s="106"/>
-      <c r="D32" s="158" t="s">
+      <c r="D32" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="161"/>
       <c r="R32" s="62"/>
       <c r="S32" s="94"/>
       <c r="T32" s="94"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="105"/>
       <c r="C33" s="106"/>
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="160"/>
+      <c r="O33" s="160"/>
+      <c r="P33" s="161"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
     </row>
-    <row r="34" spans="2:20" ht="24" customHeight="1">
+    <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="105"/>
       <c r="C34" s="106"/>
-      <c r="D34" s="152" t="s">
+      <c r="D34" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="152"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="153"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="162"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="163"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
     </row>
-    <row r="35" spans="2:20" ht="16.5" customHeight="1">
+    <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="105"/>
       <c r="C35" s="106"/>
-      <c r="D35" s="152" t="s">
+      <c r="D35" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="153"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="163"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
     </row>
-    <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1">
+    <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="111"/>
       <c r="C36" s="112"/>
-      <c r="D36" s="154" t="s">
+      <c r="D36" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="155"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="165"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
     </row>
-    <row r="38" spans="2:20">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
     </row>
-    <row r="49" spans="18:20">
+    <row r="49" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
     </row>
-    <row r="50" spans="18:20">
+    <row r="50" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -14040,26 +14021,6 @@
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="C11:P11"/>
     <mergeCell ref="C12:P12"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
